--- a/data/combo.xlsx
+++ b/data/combo.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="234">
   <si>
     <t>Code</t>
   </si>
@@ -720,6 +720,9 @@
   </si>
   <si>
     <t>Country</t>
+  </si>
+  <si>
+    <t>Urban population %</t>
   </si>
 </sst>
 </file>
@@ -752,7 +755,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -764,7 +767,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -772,26 +775,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -799,9 +787,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1119,13 +1108,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:O984"/>
+  <dimension ref="A1:I983"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="D21" sqref="D21:D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.62890625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -1137,13 +1126,12 @@
     <col min="5" max="5" width="33.15625" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.83984375" style="5" customWidth="1"/>
     <col min="7" max="7" width="25.7890625" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.83984375" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.05078125" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="12.62890625" style="5"/>
+    <col min="8" max="8" width="22.05078125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="12.62890625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="4" t="s">
         <v>232</v>
       </c>
@@ -1153,8 +1141,8 @@
       <c r="C1" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>219</v>
+      <c r="D1" s="8" t="s">
+        <v>233</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>222</v>
@@ -1165,17 +1153,14 @@
       <c r="G1" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="H1" s="5" t="s">
-        <v>226</v>
+      <c r="H1" s="6" t="s">
+        <v>225</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="J1" s="6" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4" t="s">
         <v>47</v>
       </c>
@@ -1186,7 +1171,7 @@
         <v>79.389707317073174</v>
       </c>
       <c r="D2" s="4">
-        <v>0.36896266956940421</v>
+        <v>77</v>
       </c>
       <c r="E2" s="5">
         <v>99.7</v>
@@ -1198,16 +1183,13 @@
         <v>11.8</v>
       </c>
       <c r="H2" s="5">
-        <v>11.3</v>
+        <v>7280</v>
       </c>
       <c r="I2" s="5">
-        <v>7280</v>
-      </c>
-      <c r="J2" s="5">
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="4" t="s">
         <v>62</v>
       </c>
@@ -1218,7 +1200,7 @@
         <v>62.113780487804888</v>
       </c>
       <c r="D3" s="4">
-        <v>3.5504969422379449</v>
+        <v>55</v>
       </c>
       <c r="E3" s="5">
         <v>76.599999999999994</v>
@@ -1230,16 +1212,13 @@
         <v>6.9</v>
       </c>
       <c r="H3" s="5">
-        <v>36.700000000000003</v>
+        <v>3472</v>
       </c>
       <c r="I3" s="5">
-        <v>3472</v>
-      </c>
-      <c r="J3" s="5">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="4" t="s">
         <v>74</v>
       </c>
@@ -1250,7 +1229,7 @@
         <v>68.050024390243919</v>
       </c>
       <c r="D4" s="4">
-        <v>2.3453384556514996</v>
+        <v>33</v>
       </c>
       <c r="E4" s="5">
         <v>72.099999999999994</v>
@@ -1262,16 +1241,13 @@
         <v>6.1</v>
       </c>
       <c r="H4" s="5">
-        <v>42.1</v>
+        <v>5329</v>
       </c>
       <c r="I4" s="5">
-        <v>5329</v>
-      </c>
-      <c r="J4" s="5">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="4" t="s">
         <v>82</v>
       </c>
@@ -1282,7 +1258,7 @@
         <v>76.699170731707312</v>
       </c>
       <c r="D5" s="4">
-        <v>1.7214368435786453</v>
+        <v>80</v>
       </c>
       <c r="E5" s="5">
         <v>94.4</v>
@@ -1294,16 +1270,13 @@
         <v>8.4</v>
       </c>
       <c r="H5" s="5">
-        <v>19.7</v>
+        <v>16154</v>
       </c>
       <c r="I5" s="5">
-        <v>16154</v>
-      </c>
-      <c r="J5" s="5">
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="4" t="s">
         <v>231</v>
       </c>
@@ -1314,7 +1287,7 @@
         <v>70.743658536585372</v>
       </c>
       <c r="D6" s="4">
-        <v>0.31649890953583848</v>
+        <v>74</v>
       </c>
       <c r="E6" s="5">
         <v>99.7</v>
@@ -1326,16 +1299,13 @@
         <v>12</v>
       </c>
       <c r="H6" s="5">
-        <v>2.2999999999999998</v>
+        <v>24067</v>
       </c>
       <c r="I6" s="5">
-        <v>24067</v>
-      </c>
-      <c r="J6" s="5">
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="4" t="s">
         <v>108</v>
       </c>
@@ -1346,7 +1316,7 @@
         <v>60.954780487804882</v>
       </c>
       <c r="D7" s="4">
-        <v>2.3500520590143825</v>
+        <v>65</v>
       </c>
       <c r="E7" s="5">
         <v>94.3</v>
@@ -1358,16 +1328,13 @@
         <v>10.3</v>
       </c>
       <c r="H7" s="5">
-        <v>16.100000000000001</v>
+        <v>12113</v>
       </c>
       <c r="I7" s="5">
-        <v>12113</v>
-      </c>
-      <c r="J7" s="5">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="4" t="s">
         <v>230</v>
       </c>
@@ -1378,7 +1345,7 @@
         <v>70.163219512195127</v>
       </c>
       <c r="D8" s="4">
-        <v>-2.4061492524867898</v>
+        <v>58</v>
       </c>
       <c r="E8" s="5">
         <v>86.4</v>
@@ -1390,16 +1357,13 @@
         <v>5.6</v>
       </c>
       <c r="H8" s="5">
-        <v>31.5</v>
+        <v>2905</v>
       </c>
       <c r="I8" s="5">
-        <v>2905</v>
-      </c>
-      <c r="J8" s="5">
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="4" t="s">
         <v>117</v>
       </c>
@@ -1410,7 +1374,7 @@
         <v>74.864048780487806</v>
       </c>
       <c r="D9" s="4">
-        <v>2.9360805973878792</v>
+        <v>52</v>
       </c>
       <c r="E9" s="5">
         <v>96.7</v>
@@ -1422,63 +1386,51 @@
         <v>7.9</v>
       </c>
       <c r="H9" s="5">
-        <v>16.100000000000001</v>
+        <v>14169</v>
       </c>
       <c r="I9" s="5">
-        <v>14169</v>
-      </c>
-      <c r="J9" s="5">
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="11" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="12" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="13" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="14" spans="1:15" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="15" spans="1:15" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-    </row>
-    <row r="16" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="17" spans="8:8" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="18" spans="8:8" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="H18" s="7"/>
-    </row>
-    <row r="19" spans="8:8" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="H19" s="7"/>
-    </row>
-    <row r="20" spans="8:8" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="H20" s="7"/>
-    </row>
-    <row r="21" spans="8:8" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="H21" s="7"/>
-    </row>
-    <row r="22" spans="8:8" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="H22" s="7"/>
-    </row>
-    <row r="23" spans="8:8" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="H23" s="7"/>
-    </row>
-    <row r="24" spans="8:8" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="H24" s="7"/>
-    </row>
-    <row r="25" spans="8:8" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="H25" s="7"/>
-    </row>
-    <row r="26" spans="8:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="27" spans="8:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="28" spans="8:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="29" spans="8:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="30" spans="8:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="31" spans="8:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="32" spans="8:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="10" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="11" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="12" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="13" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D13" s="7"/>
+    </row>
+    <row r="14" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D14" s="7"/>
+    </row>
+    <row r="15" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D15" s="7"/>
+    </row>
+    <row r="16" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D16" s="7"/>
+    </row>
+    <row r="17" spans="4:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D17" s="7"/>
+    </row>
+    <row r="18" spans="4:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D18" s="7"/>
+    </row>
+    <row r="19" spans="4:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D19" s="7"/>
+    </row>
+    <row r="20" spans="4:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D20" s="7"/>
+    </row>
+    <row r="21" spans="4:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="22" spans="4:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="23" spans="4:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="24" spans="4:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="25" spans="4:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="26" spans="4:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="27" spans="4:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="28" spans="4:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="29" spans="4:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="30" spans="4:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="31" spans="4:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="32" spans="4:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="33" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="34" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="35" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -2430,7 +2382,6 @@
     <row r="981" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="982" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="983" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="984" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
